--- a/Data/potential outcomes.xlsx
+++ b/Data/potential outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/causal-inference-class/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B088151F-5768-C249-B6A3-28B05CE0ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D48399A-2E77-304C-A9B9-EBAABCDA14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{E7EAF406-60FB-2941-A795-4DCE5224AEBA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Person</t>
   </si>
@@ -199,6 +199,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to do the calculations we are doing in D10, D11, D12. </t>
+    </r>
+  </si>
+  <si>
+    <t>"=" causal effect</t>
+  </si>
+  <si>
+    <t>"+" bias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate = Causal effect + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bias</t>
     </r>
   </si>
 </sst>
@@ -467,7 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -481,6 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +820,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +852,7 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>8</v>
       </c>
       <c r="C2" s="4">
@@ -858,7 +880,7 @@
       <c r="B3" s="8">
         <v>20</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>15</v>
       </c>
       <c r="D3" s="10">
@@ -883,7 +905,7 @@
       <c r="B4" s="8">
         <v>18</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="8">
@@ -905,7 +927,7 @@
       <c r="B5" s="15">
         <v>14</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>0</v>
       </c>
       <c r="D5" s="15">
@@ -927,7 +949,7 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>0</v>
       </c>
       <c r="C6" s="6">
@@ -952,7 +974,7 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>0</v>
       </c>
       <c r="C7" s="6">
@@ -977,7 +999,7 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>0</v>
       </c>
       <c r="C8" s="6">
@@ -1002,7 +1024,7 @@
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>4</v>
       </c>
       <c r="C9" s="6">
@@ -1024,19 +1046,22 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <f>AVERAGE(D2:D9)</f>
         <v>2.375</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18">
-        <f>AVERAGE(F9,F5,F4,F2)-AVERAGE(F8,F7,F6,F3)</f>
-        <v>3.25</v>
+      <c r="F10" s="29">
+        <f>AVERAGE(F3:F5)-AVERAGE(F6:F9,F2)</f>
+        <v>11.533333333333331</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1046,9 +1071,12 @@
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <f>AVERAGE(D3:D5)</f>
         <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -1058,12 +1086,15 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f>AVERAGE(D6:D9,D2)</f>
         <v>-3.4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>

--- a/Data/potential outcomes.xlsx
+++ b/Data/potential outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/causal-inference-class/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D48399A-2E77-304C-A9B9-EBAABCDA14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B211370C-0750-5640-B58F-AFECF9C03C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{E7EAF406-60FB-2941-A795-4DCE5224AEBA}"/>
   </bookViews>
@@ -259,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -466,12 +472,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,9 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,10 +499,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +829,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,20 +858,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>B2-C2</f>
         <v>-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2">
@@ -874,20 +883,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>20</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D9" si="0">B3-C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3">
@@ -899,20 +908,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>18</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4">
@@ -921,20 +930,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>14</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5">
@@ -946,20 +955,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6">
@@ -971,20 +980,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7">
@@ -996,20 +1005,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8">
@@ -1021,20 +1030,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9">
@@ -1046,17 +1055,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <f>AVERAGE(D2:D9)</f>
         <v>2.375</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="24">
         <f>AVERAGE(F3:F5)-AVERAGE(F6:F9,F2)</f>
         <v>11.533333333333331</v>
       </c>
@@ -1068,10 +1077,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f>AVERAGE(D3:D5)</f>
         <v>12</v>
       </c>
@@ -1083,10 +1092,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f>AVERAGE(D6:D9,D2)</f>
         <v>-3.4</v>
       </c>
